--- a/2019/12/New Version of Me.xlsx
+++ b/2019/12/New Version of Me.xlsx
@@ -1,26 +1,186 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hall-of-FAME-and-SHAME\2019\12\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD386EC-75CE-423D-ADC0-ED2B42524F25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$24</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$25</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$25:$A$29</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$24</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$25</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$25:$B$29</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+  <si>
+    <t xml:space="preserve">Bathing </t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Terminate</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Fager Pray</t>
+  </si>
+  <si>
+    <t>Fasting</t>
+  </si>
+  <si>
+    <t>Timing</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>0.25 =&gt;4:30</t>
+  </si>
+  <si>
+    <t>0.50=&gt;5:00</t>
+  </si>
+  <si>
+    <t>5:00am =&gt;5:00 PM</t>
+  </si>
+  <si>
+    <t>DDB 1,2,3</t>
+  </si>
+  <si>
+    <t>11:00=&gt;4:00 Pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quraan </t>
+  </si>
+  <si>
+    <t>5:15:5:30 am</t>
+  </si>
+  <si>
+    <t>Sleeping</t>
+  </si>
+  <si>
+    <t>5:30 : 11:00 am</t>
+  </si>
+  <si>
+    <t>Doher Pray</t>
+  </si>
+  <si>
+    <t>Aser Pray</t>
+  </si>
+  <si>
+    <t>Maghreb Pray</t>
+  </si>
+  <si>
+    <t>Breakfasting</t>
+  </si>
+  <si>
+    <t>Ishaa pray</t>
+  </si>
+  <si>
+    <t>Dotnet Signalr core</t>
+  </si>
+  <si>
+    <t>6:15 pm : 12:00 pm</t>
+  </si>
+  <si>
+    <t>Ch1</t>
+  </si>
+  <si>
+    <t>Ch2</t>
+  </si>
+  <si>
+    <t>Ch3</t>
+  </si>
+  <si>
+    <t>Ch4</t>
+  </si>
+  <si>
+    <t>Ch5</t>
+  </si>
+  <si>
+    <t>Ch6</t>
+  </si>
+  <si>
+    <t>Ch7</t>
+  </si>
+  <si>
+    <t>15/12/2019 DSS Exam</t>
+  </si>
+  <si>
+    <t>7:30 : 10:00</t>
+  </si>
+  <si>
+    <t>10:30/12:00</t>
+  </si>
+  <si>
+    <t>ISHAA Breaking</t>
+  </si>
+  <si>
+    <t>Oral/Practical Exam</t>
+  </si>
+  <si>
+    <t>MultiMedia</t>
+  </si>
+  <si>
+    <t>DSS</t>
+  </si>
+  <si>
+    <t>Midterm</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>DDB</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>OverAll</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +188,90 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,14 +279,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5"/>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="1" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="1" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="8">
+    <cellStyle name="20% - Accent2" xfId="6" builtinId="34"/>
+    <cellStyle name="40% - Accent4" xfId="7" builtinId="43"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
+    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -66,6 +355,1071 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29065748031496064"/>
+          <c:y val="6.7553951589384667E-2"/>
+          <c:w val="0.59646303587051608"/>
+          <c:h val="0.88158938466025083"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$25:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>DSS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MultiMedia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DDB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C239-41FD-9074-15986474FB1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$34:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MultiMedia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DSS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DDB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$34:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C239-41FD-9074-15986474FB1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1226069311"/>
+        <c:axId val="1217345103"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="1226069311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1217345103"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1217345103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1226069311"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="370">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" spc="100">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2339790</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>206190</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>13446</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8635573-2BDE-472C-BD25-AE8BF1103ABF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1684,472 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="41.88671875" customWidth="1"/>
+    <col min="6" max="6" width="55.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>43808</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="8">
+        <f>SUM(B25:B29)</f>
+        <v>41</v>
+      </c>
+      <c r="C24" s="6">
+        <f>SUM(C25:C29)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="8">
+        <v>9</v>
+      </c>
+      <c r="C25" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="8">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="8">
+        <v>10</v>
+      </c>
+      <c r="C27" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="8">
+        <v>7</v>
+      </c>
+      <c r="C28" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="8">
+        <v>6</v>
+      </c>
+      <c r="C29" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="6"/>
+      <c r="D31" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="12">
+        <f>SUM(B24,B33)</f>
+        <v>187</v>
+      </c>
+      <c r="F31" s="12">
+        <f>SUM(C25:C29,C34:C38)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="6"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="13">
+        <f>E31/F31</f>
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="10">
+        <f>SUM(B34:B38)</f>
+        <v>146</v>
+      </c>
+      <c r="C33" s="6">
+        <f>SUM(C34:C38)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="10">
+        <v>29</v>
+      </c>
+      <c r="C34" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="10">
+        <v>27</v>
+      </c>
+      <c r="C35" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="10">
+        <v>30</v>
+      </c>
+      <c r="C36" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="10">
+        <v>30</v>
+      </c>
+      <c r="C37" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="10">
+        <v>30</v>
+      </c>
+      <c r="C38" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="18">
+        <f xml:space="preserve"> DATE(2019,12,24)</f>
+        <v>43823</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="16"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="16"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="16"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="16"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="16"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="A41:A50"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/2019/12/New Version of Me.xlsx
+++ b/2019/12/New Version of Me.xlsx
@@ -8,21 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hall-of-FAME-and-SHAME\2019\12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD386EC-75CE-423D-ADC0-ED2B42524F25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938D2147-1A6D-49F4-AD65-1249B494AD8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$25</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$25:$A$29</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$24</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$25</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$25:$B$29</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t xml:space="preserve">Bathing </t>
   </si>
@@ -174,13 +166,58 @@
   </si>
   <si>
     <t>Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قراءة القرءان </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الغداء </t>
+  </si>
+  <si>
+    <t>قهوة</t>
+  </si>
+  <si>
+    <t>صلاة العصر</t>
+  </si>
+  <si>
+    <t>DDB CH1,CH2,CH3</t>
+  </si>
+  <si>
+    <t>Nescafe</t>
+  </si>
+  <si>
+    <t>صلاة المغرب</t>
+  </si>
+  <si>
+    <t>صلاة العشاء</t>
+  </si>
+  <si>
+    <t>تحضير ادوات السفر</t>
+  </si>
+  <si>
+    <t>DDB CH4,5,6</t>
+  </si>
+  <si>
+    <t>Contributing to concrruncy control Methods</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,8 +261,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +313,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -295,7 +344,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -304,8 +353,9 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
@@ -321,6 +371,10 @@
     <xf numFmtId="2" fontId="5" fillId="6" borderId="1" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="1" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8"/>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="22" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -330,12 +384,13 @@
     <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="4" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="20% - Accent2" xfId="6" builtinId="34"/>
+    <cellStyle name="40% - Accent3" xfId="8" builtinId="39"/>
     <cellStyle name="40% - Accent4" xfId="7" builtinId="43"/>
     <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
@@ -678,6 +733,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1217345103"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -735,6 +791,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1226069311"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -1420,6 +1477,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33EDAEAE-85EE-43A3-BB6C-ED2866E70E8F}" name="Table1" displayName="Table1" ref="G24:J29" totalsRowShown="0">
+  <autoFilter ref="G24:J29" xr:uid="{EA084B4D-D05D-4E30-A6AA-3615F37B3E65}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{53A7C4C3-4010-4ACE-94FE-C805B166220F}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{FFA1C50E-4E89-4AA2-ACDA-2FDD5F662519}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{1018C3AB-35BB-4BA9-A77D-794CF7BBDA45}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{87513B0A-FE45-4595-93F3-B0C13CD0C3E4}" name="Column4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1685,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1699,6 +1769,7 @@
     <col min="4" max="4" width="10.21875" customWidth="1"/>
     <col min="5" max="5" width="41.88671875" customWidth="1"/>
     <col min="6" max="6" width="55.88671875" customWidth="1"/>
+    <col min="7" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1722,7 +1793,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="17">
         <v>43808</v>
       </c>
       <c r="B2" t="s">
@@ -1737,7 +1808,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="17"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1750,7 +1821,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="17"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -1763,7 +1834,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="17"/>
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -1776,7 +1847,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="17"/>
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -1789,7 +1860,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="17"/>
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -1799,7 +1870,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="17"/>
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -1812,7 +1883,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="17"/>
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1822,7 +1893,7 @@
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="17"/>
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -1832,7 +1903,7 @@
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="17"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1842,7 +1913,7 @@
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="17"/>
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1855,7 +1926,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="17"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1868,83 +1939,83 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+      <c r="A15" s="19"/>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="16"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
       <c r="B20" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
       <c r="B22" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>39</v>
       </c>
@@ -1956,8 +2027,20 @@
         <f>SUM(C25:C29)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
@@ -1967,8 +2050,20 @@
       <c r="C25" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25">
+        <v>55</v>
+      </c>
+      <c r="I25">
+        <v>60</v>
+      </c>
+      <c r="J25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>37</v>
       </c>
@@ -1979,7 +2074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>40</v>
       </c>
@@ -1990,7 +2085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>41</v>
       </c>
@@ -2001,7 +2096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>42</v>
       </c>
@@ -2012,24 +2107,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
       <c r="D31" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="12">
-        <f>SUM(B24,B33)</f>
-        <v>187</v>
+        <f>SUM(B24,B33,H25)</f>
+        <v>242</v>
       </c>
       <c r="F31" s="12">
-        <f>SUM(C25:C29,C34:C38)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUM(C25:C29,C34:C38,I25:I29)</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
@@ -2037,7 +2132,7 @@
       </c>
       <c r="F32" s="13">
         <f>E31/F31</f>
-        <v>0.93500000000000005</v>
+        <v>0.93076923076923079</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -2108,48 +2203,140 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
-        <f xml:space="preserve"> DATE(2019,12,24)</f>
-        <v>43823</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
+    <row r="41" spans="1:3" s="5" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20">
+        <f xml:space="preserve"> DATE(2019,12,26)</f>
+        <v>43825</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+      <c r="B42" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="20"/>
+      <c r="B43" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="20"/>
+      <c r="B44" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
+      <c r="B45" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="20"/>
+      <c r="B46" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
+      <c r="B47" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="20"/>
+      <c r="B48" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20"/>
+      <c r="B49" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="20"/>
+      <c r="B50" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="20"/>
+      <c r="B51" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="20"/>
+      <c r="B52" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="16">
+        <f xml:space="preserve"> DATE(2019,12,27)</f>
+        <v>43826</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="16"/>
+      <c r="B54" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="16"/>
+      <c r="B55" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="16"/>
+      <c r="B56" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="16"/>
+      <c r="B57" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="16"/>
+      <c r="B58" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="16"/>
+      <c r="B59" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A53:A59"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="E18:E21"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="A14:A22"/>
-    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="A41:A52"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>